--- a/xl/class-2.xlsx
+++ b/xl/class-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rafin\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rafin\cf\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F965DA-0D5B-4C2D-966D-DF35BAE16F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AFDAA2-16A0-4C62-BAED-9353AAB912A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,8 +206,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-444]"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-444]"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
@@ -399,11 +399,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -773,7 +771,7 @@
         <v>654564</v>
       </c>
       <c r="U22" s="7">
-        <f>MIN(L22,N22,P22,R22,T22)</f>
+        <f t="shared" ref="U22:U40" si="0">MIN(L22,N22,P22,R22,T22)</f>
         <v>4565</v>
       </c>
     </row>
@@ -793,21 +791,21 @@
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7">
-        <f t="shared" ref="P23:P40" si="0">SUM(L23-N23)</f>
+        <f t="shared" ref="P23:P40" si="1">SUM(L23-N23)</f>
         <v>54535000</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <f t="shared" ref="R23:R40" si="1">AVERAGE(L23:P23)</f>
+        <f t="shared" ref="R23:R40" si="2">AVERAGE(L23:P23)</f>
         <v>36356976</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7">
-        <f t="shared" ref="T23:T40" si="2">MAX(L23,N23,P23,R23,)</f>
+        <f t="shared" ref="T23:T40" si="3">MAX(L23,N23,P23,R23,)</f>
         <v>54535464</v>
       </c>
       <c r="U23" s="7">
-        <f>MIN(L23,N23,P23,R23,T23)</f>
+        <f t="shared" si="0"/>
         <v>464</v>
       </c>
     </row>
@@ -832,16 +830,16 @@
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304243615.33333331</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>456365423</v>
       </c>
       <c r="U24" s="7">
-        <f>MIN(L24,N24,P24,R24,T24)</f>
+        <f t="shared" si="0"/>
         <v>4646</v>
       </c>
     </row>
@@ -861,21 +859,21 @@
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4287468</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2894756.6666666665</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4342135</v>
       </c>
       <c r="U25" s="7">
-        <f>MIN(L25,N25,P25,R25,T25)</f>
+        <f t="shared" si="0"/>
         <v>54667</v>
       </c>
     </row>
@@ -895,21 +893,21 @@
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53911842</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36243642</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54365463</v>
       </c>
       <c r="U26" s="7">
-        <f>MIN(L26,N26,P26,R26,T26)</f>
+        <f t="shared" si="0"/>
         <v>453621</v>
       </c>
     </row>
@@ -929,21 +927,21 @@
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4341310</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2897102.6666666665</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4345654</v>
       </c>
       <c r="U27" s="7">
-        <f>MIN(L27,N27,P27,R27,T27)</f>
+        <f t="shared" si="0"/>
         <v>4344</v>
       </c>
     </row>
@@ -963,21 +961,21 @@
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42997088</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28969089.333333332</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43453634</v>
       </c>
       <c r="U28" s="7">
-        <f>MIN(L28,N28,P28,R28,T28)</f>
+        <f t="shared" si="0"/>
         <v>456546</v>
       </c>
     </row>
@@ -997,21 +995,21 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4299188</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2897102.6666666665</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4345654</v>
       </c>
       <c r="U29" s="7">
-        <f>MIN(L29,N29,P29,R29,T29)</f>
+        <f t="shared" si="0"/>
         <v>46466</v>
       </c>
     </row>
@@ -1031,21 +1029,21 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4409997</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2970968.6666666665</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4456453</v>
       </c>
       <c r="U30" s="7">
-        <f>MIN(L30,N30,P30,R30,T30)</f>
+        <f t="shared" si="0"/>
         <v>46456</v>
       </c>
     </row>
@@ -1065,21 +1063,21 @@
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4410075</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2971028.6666666665</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4456543</v>
       </c>
       <c r="U31" s="7">
-        <f>MIN(L31,N31,P31,R31,T31)</f>
+        <f t="shared" si="0"/>
         <v>46468</v>
       </c>
     </row>
@@ -1099,21 +1097,21 @@
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42993087</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28971028.666666668</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43456543</v>
       </c>
       <c r="U32" s="7">
-        <f>MIN(L32,N32,P32,R32,T32)</f>
+        <f t="shared" si="0"/>
         <v>463456</v>
       </c>
     </row>
@@ -1133,21 +1131,21 @@
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45638548</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30456956</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45685434</v>
       </c>
       <c r="U33" s="7">
-        <f>MIN(L33,N33,P33,R33,T33)</f>
+        <f t="shared" si="0"/>
         <v>46886</v>
       </c>
     </row>
@@ -1167,21 +1165,21 @@
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46318061</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31243016</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46864524</v>
       </c>
       <c r="U34" s="7">
-        <f>MIN(L34,N34,P34,R34,T34)</f>
+        <f t="shared" si="0"/>
         <v>546463</v>
       </c>
     </row>
@@ -1201,21 +1199,21 @@
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46496488</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31028089.333333332</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46542134</v>
       </c>
       <c r="U35" s="7">
-        <f>MIN(L35,N35,P35,R35,T35)</f>
+        <f t="shared" si="0"/>
         <v>45646</v>
       </c>
     </row>
@@ -1235,21 +1233,21 @@
       </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45621648</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30430142</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45645213</v>
       </c>
       <c r="U36" s="7">
-        <f>MIN(L36,N36,P36,R36,T36)</f>
+        <f t="shared" si="0"/>
         <v>23565</v>
       </c>
     </row>
@@ -1269,21 +1267,21 @@
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>455999567</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304230142</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>456345213</v>
       </c>
       <c r="U37" s="7">
-        <f>MIN(L37,N37,P37,R37,T37)</f>
+        <f t="shared" si="0"/>
         <v>345646</v>
       </c>
     </row>
@@ -1304,21 +1302,21 @@
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22999778</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15637694.666666666</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23456542</v>
       </c>
       <c r="U38" s="7">
-        <f>MIN(L38,N38,P38,R38,T38)</f>
+        <f t="shared" si="0"/>
         <v>456764</v>
       </c>
     </row>
@@ -1338,21 +1336,21 @@
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41229300</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27790442.666666668</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41685664</v>
       </c>
       <c r="U39" s="7">
-        <f>MIN(L39,N39,P39,R39,T39)</f>
+        <f t="shared" si="0"/>
         <v>456364</v>
       </c>
     </row>
@@ -1372,21 +1370,21 @@
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45997968</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30969549.333333332</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46454324</v>
       </c>
       <c r="U40" s="7">
-        <f>MIN(L40,N40,P40,R40,T40)</f>
+        <f t="shared" si="0"/>
         <v>456356</v>
       </c>
     </row>
@@ -1664,7 +1662,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1681,7 +1679,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
@@ -1696,7 +1694,7 @@
       <c r="E2" s="11">
         <v>500000</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>0.15</v>
       </c>
       <c r="G2" t="b">
@@ -1705,7 +1703,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1726,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -1747,7 +1745,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -1768,7 +1766,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1789,7 +1787,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
@@ -1805,12 +1803,12 @@
         <v>500000</v>
       </c>
       <c r="G7" t="b">
-        <f t="shared" ref="G5:G12" si="0">IF(E5&lt;=5,TRUE,FALSE)</f>
+        <f t="shared" ref="G7:G12" si="0">IF(E5&lt;=5,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
@@ -1831,7 +1829,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
@@ -1852,7 +1850,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
@@ -1873,7 +1871,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
@@ -1894,7 +1892,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
